--- a/resume/経歴書SE（Das Hridoy Chandra)Update.xlsx
+++ b/resume/経歴書SE（Das Hridoy Chandra)Update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hridoydas/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hridoydas/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE614D2-AAF8-F440-9A0E-C4CD7D2D6CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C37C56-D9FF-EB43-B27D-4F9EC84C81B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{98099249-78DB-493C-8A03-7246E00B59D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{98099249-78DB-493C-8A03-7246E00B59D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>技 術 者 経 歴 書</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>プログラミング</t>
-  </si>
-  <si>
-    <t>システムテスト</t>
   </si>
   <si>
     <t>No.</t>
@@ -164,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>realm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DAS HRIDOY CANDRA</t>
   </si>
   <si>
@@ -195,23 +188,13 @@
     <t>Jetpack Compose</t>
   </si>
   <si>
-    <t>Swift UI</t>
-  </si>
-  <si>
     <t>Flutter</t>
   </si>
   <si>
-    <t>【アピールポイント】
-Androidアプリ開発経験4年以上、デバイス機能を活用した開発を経験</t>
-  </si>
-  <si>
     <t>能力判断：◎＝経験1年以上　〇＝業務経験　☆＝知識あり</t>
   </si>
   <si>
     <t>☆</t>
-  </si>
-  <si>
-    <t>2023年06月26日　現在</t>
   </si>
   <si>
     <t>SE/4名</t>
@@ -247,14 +230,6 @@
     <t>詳細設計
 プログラミング
 テスト</t>
-  </si>
-  <si>
-    <t>【言語】
-　Java
-【OS】
-　Mac
-【環境】
-　AndroidStudio</t>
   </si>
   <si>
     <t>【言語】
@@ -275,75 +250,111 @@
 ・UI/UXとテストの再設計と改善を担当</t>
   </si>
   <si>
+    <t>2022年9月</t>
+  </si>
+  <si>
+    <t>SE/2名</t>
+  </si>
+  <si>
+    <t>SE/5名</t>
+  </si>
+  <si>
+    <t>2022年11</t>
+  </si>
+  <si>
+    <t>〜ヶ月</t>
+  </si>
+  <si>
+    <t>【Androidアプリ（Cloud-Brain 業務管理アプリ）開発・運用】
+・画面遷移からAPI進行までシステム設計、製作、バグ改修を担当</t>
+  </si>
+  <si>
+    <t>SE/11名</t>
+  </si>
+  <si>
+    <t>2022年11月）</t>
+  </si>
+  <si>
+    <t>Kotlin Multiplatform</t>
+  </si>
+  <si>
+    <t>2024年03月14日　現在</t>
+  </si>
+  <si>
+    <t>SQLDelight</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>realm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【Android,iOSアプリ（コグニフォトベース　事故車修理費見積システムアプリ（拡張現実環境でのファイル共有・通信サービスなど））開発】
+・ 画面遷移からUI/UX改善までシステム設計、製作、バグ改修、
+全体的なアーキテクチャを改善し、メンテナンス作業、 Android および iOS のテスト自動化、シェル スクリプト、プロジェクトをアップグレードを担当
+</t>
+  </si>
+  <si>
+    <t>2024年3月〜</t>
+  </si>
+  <si>
+    <t>詳細設計
+プログラミング
+テスト、テスト自動化</t>
+  </si>
+  <si>
     <t>【言語】
-　PHP Laravel,NuxtJS
+　Kotlin、SwiftUI
+【フレームワークとライブラリ】
+Jetpack Compose, Hilt, Room,　Retrofit, ARCore, Datastore, zxing(QR), FCMなど
+【OS】
+　Mac
+【環境】
+　AndroidStudio, X-code</t>
+  </si>
+  <si>
+    <t>【アピールポイント】
+Androidアプリ開発の経験が3年以上あり、ネイティブAndroidおよびIOS、
+Kotlin Multiplatform、クロスプラットフォームの機能を活用した開発を経験</t>
+  </si>
+  <si>
+    <t>SwiftUI</t>
+  </si>
+  <si>
+    <t>【Multi-Platformアプリ（勤怠管理アプリ）開発・運用】
+・Flutter を使用で勤怠管理のすべての機能できるか調査と実装を担当</t>
+  </si>
+  <si>
+    <t>【言語、フレームワーク】
+　PHP, Laravel,NuxtJS
 【OS,Platform】
 　Mac,Docker
 【環境】
 　VS-code</t>
   </si>
   <si>
-    <t>2022年9月</t>
-  </si>
-  <si>
-    <t>SE/2名</t>
-  </si>
-  <si>
-    <t>SE/5名</t>
-  </si>
-  <si>
-    <t>【Multi-Platformアプリ（勤怠管理アプリ）開発・運用】
-・Flutter を使用で勤怠管理のすべての機能できるか調査と実装を担当
-(No3と同一のアプリをそれぞれネイティブで開発）</t>
-  </si>
-  <si>
     <t>【言語】
-　Flutter
+　JAVA
+【OS】
+　Mac
+【環境】
+　AndroidStudio</t>
+  </si>
+  <si>
+    <t>【言語】
+　Dart (Flutter)
 【OS】
 　Mac
 【環境】
 　AndroidStudio, VS-code, X-code</t>
-  </si>
-  <si>
-    <t>2022年11</t>
-  </si>
-  <si>
-    <t>2023年4月〜</t>
-  </si>
-  <si>
-    <t>〜ヶ月</t>
-  </si>
-  <si>
-    <t>【Androidアプリ（Cloud-Brain 業務管理アプリ）開発・運用】
-・画面遷移からAPI進行までシステム設計、製作、バグ改修を担当</t>
-  </si>
-  <si>
-    <t>SE/11名</t>
-  </si>
-  <si>
-    <t>【Android,iOSアプリ（コグニフォトベース　損害保険会社・共済さまと事故車画像や見積書、メッセージ等の伝送を行えるファイル共有・コミュニケーションサービスアプリ）開発】
-・ 画面遷移からUI/UX改善までシステム設計、製作、バグ改修を担当</t>
-  </si>
-  <si>
-    <t>【言語】
-　Kotlin,SwiftUI, Jetpack Compose, AR
-【OS】
-　Mac
-【環境】
-　AndroidStudio, X-code</t>
-  </si>
-  <si>
-    <t>2022年11月）</t>
-  </si>
-  <si>
-    <t>Kotlin Multiplatform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +417,11 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -817,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,6 +903,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,6 +954,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -942,9 +1003,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -953,18 +1011,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,16 +1019,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1006,33 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,9 +1074,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1092,7 +1114,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1198,7 +1220,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1340,7 +1362,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1353,8 +1375,8 @@
   </sheetPr>
   <dimension ref="B1:N56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="144" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:K13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A47" zoomScale="144" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51:N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1372,235 +1394,235 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="B2" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
     </row>
     <row r="3" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="38"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="2:14" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="49" t="s">
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1">
+        <v>27</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="64"/>
+    </row>
+    <row r="5" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="58"/>
+      <c r="D5" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
+    </row>
+    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="1">
-        <v>26</v>
-      </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="54"/>
-    </row>
-    <row r="5" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="58" t="s">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
+    </row>
+    <row r="7" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="54"/>
-    </row>
-    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="54"/>
-    </row>
-    <row r="7" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="57"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="68"/>
     </row>
     <row r="8" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="39"/>
-      <c r="N9" s="40"/>
+      <c r="B9" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="54"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="61"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="31"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="61"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="31"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="32"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="61"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="31"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="62"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="32"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="33"/>
     </row>
     <row r="15" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C15" s="21"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="47"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1636,127 +1658,199 @@
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="64"/>
+      <c r="B17" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="43"/>
       <c r="D17" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="64"/>
+      <c r="B18" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="43"/>
       <c r="D18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="G18" s="13" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K18" s="13" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="13"/>
-      <c r="N18" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="64"/>
+      <c r="B19" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="43"/>
       <c r="D19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="K19" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="11"/>
+      <c r="M19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="64"/>
+      <c r="B20" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="43"/>
       <c r="D20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="11"/>
+      <c r="E20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="64"/>
+      <c r="B21" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="43"/>
       <c r="D21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="11"/>
+      <c r="I21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
       <c r="F22" s="17"/>
@@ -1770,657 +1864,609 @@
       <c r="N22" s="17"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
     </row>
     <row r="24" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
     </row>
     <row r="25" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="38"/>
+      <c r="B25" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="39"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67" t="s">
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="47" t="s">
+      <c r="M26" s="41"/>
+      <c r="N26" s="48"/>
+    </row>
+    <row r="27" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="24">
+        <v>1</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="29"/>
+      <c r="N27" s="32"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B28" s="24"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="32"/>
+    </row>
+    <row r="29" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24"/>
+      <c r="C29" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="37"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="32"/>
+    </row>
+    <row r="30" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="24"/>
+      <c r="C30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="32"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="24"/>
+      <c r="C31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="48"/>
-    </row>
-    <row r="27" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23">
-        <v>1</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="31"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="31"/>
-    </row>
-    <row r="29" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="31"/>
-    </row>
-    <row r="30" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="31"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="23"/>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="31"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="32"/>
     </row>
     <row r="32" spans="2:14" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="22" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="33"/>
     </row>
     <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="23">
+      <c r="B33" s="24">
         <v>2</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" s="29"/>
+      <c r="N33" s="32"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" s="24"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="32"/>
+    </row>
+    <row r="35" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
+      <c r="C35" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="31"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="31"/>
-    </row>
-    <row r="35" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
-      <c r="C35" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="31"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="32"/>
     </row>
     <row r="36" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="23"/>
-      <c r="C36" s="37" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="32"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="24"/>
+      <c r="C37" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="32"/>
+    </row>
+    <row r="38" spans="2:14" ht="53" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="25"/>
+      <c r="C38" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="33"/>
+    </row>
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="24">
+        <v>3</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="29"/>
+      <c r="N39" s="32"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="24"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="32"/>
+    </row>
+    <row r="41" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
+      <c r="C41" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="32"/>
+    </row>
+    <row r="42" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
+      <c r="C42" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="32"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="24"/>
+      <c r="C43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="32"/>
+    </row>
+    <row r="44" spans="2:14" ht="53" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="25"/>
+      <c r="C44" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="33"/>
+    </row>
+    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="24">
+        <v>4</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" s="29"/>
+      <c r="N45" s="32"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="24"/>
+      <c r="C46" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="32"/>
+    </row>
+    <row r="47" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="24"/>
+      <c r="C47" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="37"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="32"/>
+    </row>
+    <row r="48" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="24"/>
+      <c r="C48" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="32"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="24"/>
+      <c r="C49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="32"/>
+    </row>
+    <row r="50" spans="2:14" ht="66" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="25"/>
+      <c r="C50" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="31"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="8" t="s">
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="33"/>
+    </row>
+    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="24">
+        <v>5</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="27"/>
+      <c r="E51" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" s="29"/>
+      <c r="N51" s="32"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="24"/>
+      <c r="C52" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="32"/>
+    </row>
+    <row r="53" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="24"/>
+      <c r="C53" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="32"/>
+    </row>
+    <row r="54" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="C54" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="32"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="24"/>
+      <c r="C55" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="31"/>
-    </row>
-    <row r="38" spans="2:14" ht="53" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
-      <c r="C38" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="32"/>
-    </row>
-    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="23">
-        <v>3</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="31"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="31"/>
-    </row>
-    <row r="41" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
-      <c r="C41" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="31"/>
-    </row>
-    <row r="42" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
-      <c r="C42" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="31"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="31"/>
-    </row>
-    <row r="44" spans="2:14" ht="53" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="32"/>
-    </row>
-    <row r="45" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="23">
-        <v>4</v>
-      </c>
-      <c r="C45" s="25" t="s">
+      <c r="E55" s="28"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="32"/>
+    </row>
+    <row r="56" spans="2:14" ht="53" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="25"/>
+      <c r="C56" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="31"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="C46" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="31"/>
-    </row>
-    <row r="47" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="31"/>
-    </row>
-    <row r="48" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="23"/>
-      <c r="C48" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="31"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="23"/>
-      <c r="C49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="31"/>
-    </row>
-    <row r="50" spans="2:14" ht="66" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
-      <c r="C50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="32"/>
-    </row>
-    <row r="51" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="23">
-        <v>5</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="31"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="23"/>
-      <c r="C52" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="31"/>
-    </row>
-    <row r="53" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="31"/>
-    </row>
-    <row r="54" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="23"/>
-      <c r="C54" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="31"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="23"/>
-      <c r="C55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="31"/>
-    </row>
-    <row r="56" spans="2:14" ht="53" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="24"/>
-      <c r="C56" s="22" t="s">
-        <v>59</v>
-      </c>
       <c r="D56" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="32"/>
+        <v>45</v>
+      </c>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="B51:B56"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:K56"/>
-    <mergeCell ref="L51:N56"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:K38"/>
-    <mergeCell ref="L33:N38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:K44"/>
-    <mergeCell ref="L39:N44"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:K50"/>
-    <mergeCell ref="L45:N50"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:K32"/>
-    <mergeCell ref="L27:N32"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="L9:N13"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="B2:N2"/>
@@ -2437,6 +2483,54 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="B9:K13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:K32"/>
+    <mergeCell ref="L27:N32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:K50"/>
+    <mergeCell ref="L45:N50"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:K44"/>
+    <mergeCell ref="L39:N44"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:K38"/>
+    <mergeCell ref="L33:N38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="B51:B56"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:K56"/>
+    <mergeCell ref="L51:N56"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
